--- a/AccessibleDashboardData/2022-04-01.xlsx
+++ b/AccessibleDashboardData/2022-04-01.xlsx
@@ -12401,7 +12401,7 @@
         <v>2043</v>
       </c>
       <c r="B4">
-        <v>13096727</v>
+        <v>13130588</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12409,7 +12409,7 @@
         <v>2044</v>
       </c>
       <c r="B5">
-        <v>1081848</v>
+        <v>1082948</v>
       </c>
     </row>
   </sheetData>
